--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>dangerous</t>
@@ -64,40 +70,37 @@
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -466,10 +469,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -527,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -545,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -577,13 +580,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -595,19 +598,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -619,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -627,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8787878787878788</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -645,19 +648,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -669,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -677,13 +680,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -695,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -719,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -727,13 +730,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -745,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.5862068965517241</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -769,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -777,13 +780,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -795,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0.5166666666666667</v>
@@ -827,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4710144927536232</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -845,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.4933333333333333</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -869,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -877,13 +880,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3829787234042553</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -895,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.2916666666666667</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -927,13 +930,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -945,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.07377049180327869</v>
+        <v>0.02108433734939759</v>
       </c>
       <c r="L11">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,21 +972,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1017</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.01807228915662651</v>
+        <v>0.01792573623559539</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>652</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
